--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1807024.35788919</v>
+        <v>1808426.547300665</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3079844.926555349</v>
+        <v>3079844.92655535</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>116.9725659584295</v>
+        <v>161.5206846150011</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
@@ -789,22 +789,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>59.03357629141982</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>42.32678262030264</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.731853022010159</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>62.31863667330565</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>22.78241422394281</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>412.2877386950441</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>102.5263837195388</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>33.85559031833735</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
         <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>16.26247404666226</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>193.2177050448422</v>
       </c>
     </row>
     <row r="7">
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.76684614189112</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>4.829211983423522</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>47.90032923012424</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>411.9912837749882</v>
       </c>
       <c r="H8" t="n">
-        <v>305.5613764994885</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>82.8110692533952</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>9.752716190455937</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>28.39488805630279</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.571733211584</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>95.12374133525987</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>28.39442223619832</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>138.7730613005968</v>
+        <v>89.85933003542357</v>
       </c>
       <c r="T9" t="n">
         <v>193.0231960126071</v>
@@ -1269,10 +1269,10 @@
         <v>225.8248173473152</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5055752114954</v>
+        <v>166.5055752114953</v>
       </c>
       <c r="H10" t="n">
-        <v>149.0205792735286</v>
+        <v>149.0205792735285</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>110.7803211258496</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>110.5042194600695</v>
+        <v>110.5042194600694</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2380073121111</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>98.08416870600176</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>51.65602455664789</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>229.7965692041383</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.1127822067376</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247721</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.85094774364168</v>
+        <v>74.75769145492424</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>251.2852794514157</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>335.2177016912319</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>120.6353666620236</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>35.19569619650092</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1844,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>300.462076507786</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>184.1477353216917</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>73.57457550998033</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>179.9170634208436</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>379.5854838594006</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>168.1158122680966</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2257,7 +2257,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>87.04471625317299</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>266.860286136539</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>71.67037196991713</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39501537729579</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -2968,7 +2968,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="U31" t="n">
-        <v>201.360032484281</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,7 +3044,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>294.05824889647</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>94.18069286059928</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>25.5424569217023</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -3244,16 +3244,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>165.9923877534435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.54746605010313</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>184.1477353216916</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>66.06391530585678</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.626889274476</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3509,16 +3509,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,16 +3554,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>207.4013215962282</v>
+        <v>168.1158122680972</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.626889274476</v>
+        <v>167.2858376024961</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>75.45675224107644</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,7 +3755,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>173.5578851713669</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>51.06561173382014</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>187.8260178665608</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>144.4395564837985</v>
       </c>
       <c r="V44" t="n">
-        <v>229.7965692041379</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.487334137518163</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>307.6661507067969</v>
       </c>
       <c r="C2" t="n">
-        <v>1054.855520006025</v>
+        <v>307.6661507067969</v>
       </c>
       <c r="D2" t="n">
-        <v>788.477863438847</v>
+        <v>307.6661507067969</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716689</v>
+        <v>307.6661507067969</v>
       </c>
       <c r="F2" t="n">
-        <v>255.7225503044908</v>
+        <v>300.7206499575934</v>
       </c>
       <c r="G2" t="n">
         <v>137.5684432757741</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.421463841153</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.421463841153</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.421463841153</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.421463841153</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>574.0438072739749</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>574.0438072739749</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>452.2778269897948</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="C3" t="n">
-        <v>452.2778269897948</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="D3" t="n">
-        <v>303.3434173285435</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="E3" t="n">
-        <v>303.3434173285435</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="G3" t="n">
         <v>165.9467308776107</v>
@@ -4413,16 +4413,16 @@
         <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789494</v>
@@ -4437,22 +4437,22 @@
         <v>887.8833378166548</v>
       </c>
       <c r="T3" t="n">
-        <v>828.2534627748166</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="U3" t="n">
-        <v>828.2534627748166</v>
+        <v>462.9384134849059</v>
       </c>
       <c r="V3" t="n">
-        <v>828.2534627748166</v>
+        <v>420.1840876058124</v>
       </c>
       <c r="W3" t="n">
-        <v>828.2534627748166</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="X3" t="n">
-        <v>828.2534627748166</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="Y3" t="n">
-        <v>620.4931640098628</v>
+        <v>165.9467308776107</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.4303857829972</v>
+        <v>337.9463869104205</v>
       </c>
       <c r="C4" t="n">
-        <v>608.4303857829972</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="D4" t="n">
-        <v>608.4303857829972</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>460.5172922006041</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.182233022705</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407079</v>
+        <v>1053.106173519146</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407079</v>
+        <v>1053.106173519146</v>
       </c>
       <c r="U4" t="n">
-        <v>863.114873988884</v>
+        <v>786.728516951968</v>
       </c>
       <c r="V4" t="n">
-        <v>608.4303857829972</v>
+        <v>786.728516951968</v>
       </c>
       <c r="W4" t="n">
-        <v>608.4303857829972</v>
+        <v>786.728516951968</v>
       </c>
       <c r="X4" t="n">
-        <v>608.4303857829972</v>
+        <v>558.7389660539507</v>
       </c>
       <c r="Y4" t="n">
-        <v>608.4303857829972</v>
+        <v>337.9463869104205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1291.086576384843</v>
+        <v>1333.691897857813</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.074036764699</v>
+        <v>964.7293809174014</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.074036764699</v>
+        <v>964.7293809174014</v>
       </c>
       <c r="E5" t="n">
-        <v>1268.074036764699</v>
+        <v>964.7293809174014</v>
       </c>
       <c r="F5" t="n">
-        <v>857.0881319750911</v>
+        <v>553.7434761277939</v>
       </c>
       <c r="G5" t="n">
-        <v>440.6358706669656</v>
+        <v>137.2912148196685</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038229</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4592,25 +4592,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1544.727438003256</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1544.727438003256</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U5" t="n">
-        <v>1291.086576384843</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V5" t="n">
-        <v>1291.086576384843</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.086576384843</v>
+        <v>1333.691897857813</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.086576384843</v>
+        <v>1333.691897857813</v>
       </c>
       <c r="Y5" t="n">
-        <v>1291.086576384843</v>
+        <v>1333.691897857813</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>636.3505964147359</v>
+        <v>227.1642320461326</v>
       </c>
       <c r="C6" t="n">
-        <v>461.8975671336089</v>
+        <v>227.1642320461326</v>
       </c>
       <c r="D6" t="n">
-        <v>461.8975671336089</v>
+        <v>227.1642320461326</v>
       </c>
       <c r="E6" t="n">
-        <v>302.6601121281534</v>
+        <v>67.92677704067708</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6601121281534</v>
+        <v>67.92677704067708</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5587479084195</v>
+        <v>67.92677704067708</v>
       </c>
       <c r="H6" t="n">
         <v>67.92677704067708</v>
@@ -4644,25 +4644,25 @@
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>183.8748628766941</v>
+        <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>451.1842149794078</v>
+        <v>180.4678301599682</v>
       </c>
       <c r="L6" t="n">
-        <v>660.7750882322384</v>
+        <v>390.0587034127988</v>
       </c>
       <c r="M6" t="n">
-        <v>924.7146197277258</v>
+        <v>653.9982349082861</v>
       </c>
       <c r="N6" t="n">
-        <v>1210.048490161058</v>
+        <v>939.3321053416188</v>
       </c>
       <c r="O6" t="n">
-        <v>1448.853441912517</v>
+        <v>1178.137057093077</v>
       </c>
       <c r="P6" t="n">
-        <v>1621.182402866226</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4671,25 +4671,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S6" t="n">
-        <v>1686.460553127927</v>
+        <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1490.841830594767</v>
+        <v>1347.691013115832</v>
       </c>
       <c r="U6" t="n">
-        <v>1490.841830594767</v>
+        <v>1119.574596246804</v>
       </c>
       <c r="V6" t="n">
-        <v>1474.415089133492</v>
+        <v>884.4224880150612</v>
       </c>
       <c r="W6" t="n">
-        <v>1220.177732405291</v>
+        <v>630.1851312868596</v>
       </c>
       <c r="X6" t="n">
-        <v>1012.326232199758</v>
+        <v>422.3336310813268</v>
       </c>
       <c r="Y6" t="n">
-        <v>804.565933434804</v>
+        <v>227.1642320461326</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.9871663973415</v>
+        <v>614.9963345205759</v>
       </c>
       <c r="C7" t="n">
-        <v>202.0509834694346</v>
+        <v>614.9963345205759</v>
       </c>
       <c r="D7" t="n">
-        <v>202.0509834694346</v>
+        <v>464.8796951082402</v>
       </c>
       <c r="E7" t="n">
-        <v>202.0509834694346</v>
+        <v>464.8796951082402</v>
       </c>
       <c r="F7" t="n">
-        <v>202.0509834694346</v>
+        <v>317.9897476103299</v>
       </c>
       <c r="G7" t="n">
-        <v>33.72921106255854</v>
+        <v>149.6679752034538</v>
       </c>
       <c r="H7" t="n">
-        <v>33.72921106255854</v>
+        <v>149.6679752034538</v>
       </c>
       <c r="I7" t="n">
         <v>33.72921106255854</v>
@@ -4747,28 +4747,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1207.508588189859</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>1005.036341350161</v>
+        <v>1090.659418261162</v>
       </c>
       <c r="T7" t="n">
-        <v>780.6251821255986</v>
+        <v>1090.659418261162</v>
       </c>
       <c r="U7" t="n">
-        <v>780.6251821255986</v>
+        <v>801.5227912532637</v>
       </c>
       <c r="V7" t="n">
-        <v>780.6251821255986</v>
+        <v>801.5227912532637</v>
       </c>
       <c r="W7" t="n">
-        <v>780.6251821255986</v>
+        <v>801.5227912532637</v>
       </c>
       <c r="X7" t="n">
-        <v>552.6356312275813</v>
+        <v>796.6447993508157</v>
       </c>
       <c r="Y7" t="n">
-        <v>552.6356312275813</v>
+        <v>796.6447993508157</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1645.804804864176</v>
+        <v>1980.737620660951</v>
       </c>
       <c r="C8" t="n">
-        <v>1645.804804864176</v>
+        <v>1611.775103720539</v>
       </c>
       <c r="D8" t="n">
-        <v>1645.804804864176</v>
+        <v>1253.509405113789</v>
       </c>
       <c r="E8" t="n">
-        <v>1260.016552265932</v>
+        <v>867.7211525155445</v>
       </c>
       <c r="F8" t="n">
-        <v>849.0306474763245</v>
+        <v>456.735247725937</v>
       </c>
       <c r="G8" t="n">
-        <v>432.8778355823969</v>
+        <v>40.58243583200941</v>
       </c>
       <c r="H8" t="n">
-        <v>124.2299805324085</v>
+        <v>40.58243583200941</v>
       </c>
       <c r="I8" t="n">
-        <v>40.58243583200928</v>
+        <v>40.58243583200941</v>
       </c>
       <c r="J8" t="n">
-        <v>139.591932259599</v>
+        <v>139.5919322595996</v>
       </c>
       <c r="K8" t="n">
-        <v>338.7200200862888</v>
+        <v>338.72002008629</v>
       </c>
       <c r="L8" t="n">
-        <v>622.6577830032402</v>
+        <v>622.6577830032425</v>
       </c>
       <c r="M8" t="n">
-        <v>970.2626906423015</v>
+        <v>970.2626906423048</v>
       </c>
       <c r="N8" t="n">
-        <v>1328.106017475538</v>
+        <v>1328.106017475542</v>
       </c>
       <c r="O8" t="n">
-        <v>1652.672062514631</v>
+        <v>1652.672062514636</v>
       </c>
       <c r="P8" t="n">
-        <v>1895.180671995701</v>
+        <v>1895.180671995706</v>
       </c>
       <c r="Q8" t="n">
-        <v>2029.121791600464</v>
+        <v>2029.12179160047</v>
       </c>
       <c r="R8" t="n">
-        <v>2029.121791600464</v>
+        <v>2029.12179160047</v>
       </c>
       <c r="S8" t="n">
-        <v>2029.121791600464</v>
+        <v>2029.12179160047</v>
       </c>
       <c r="T8" t="n">
-        <v>2029.121791600464</v>
+        <v>2029.12179160047</v>
       </c>
       <c r="U8" t="n">
-        <v>2029.121791600464</v>
+        <v>2029.12179160047</v>
       </c>
       <c r="V8" t="n">
-        <v>2029.121791600464</v>
+        <v>2029.12179160047</v>
       </c>
       <c r="W8" t="n">
-        <v>2019.270563125256</v>
+        <v>2029.12179160047</v>
       </c>
       <c r="X8" t="n">
-        <v>1645.804804864176</v>
+        <v>2029.12179160047</v>
       </c>
       <c r="Y8" t="n">
-        <v>1645.804804864176</v>
+        <v>2029.12179160047</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>392.6515798817641</v>
+        <v>931.4488542004755</v>
       </c>
       <c r="C9" t="n">
-        <v>218.1985506006371</v>
+        <v>756.9958249193485</v>
       </c>
       <c r="D9" t="n">
-        <v>69.26414093938584</v>
+        <v>608.0614152580972</v>
       </c>
       <c r="E9" t="n">
-        <v>40.58243583200928</v>
+        <v>448.8239602526418</v>
       </c>
       <c r="F9" t="n">
-        <v>40.58243583200928</v>
+        <v>302.2894022795267</v>
       </c>
       <c r="G9" t="n">
-        <v>40.58243583200928</v>
+        <v>165.3482576213611</v>
       </c>
       <c r="H9" t="n">
-        <v>40.58243583200928</v>
+        <v>69.26367041402791</v>
       </c>
       <c r="I9" t="n">
-        <v>40.58243583200928</v>
+        <v>40.58243583200941</v>
       </c>
       <c r="J9" t="n">
-        <v>205.5640916513399</v>
+        <v>80.73396666433553</v>
       </c>
       <c r="K9" t="n">
-        <v>352.3442778104477</v>
+        <v>227.5141528234438</v>
       </c>
       <c r="L9" t="n">
-        <v>596.0308930565553</v>
+        <v>471.2007680695522</v>
       </c>
       <c r="M9" t="n">
-        <v>899.7585472659424</v>
+        <v>973.4084114906685</v>
       </c>
       <c r="N9" t="n">
-        <v>1225.933613628158</v>
+        <v>1299.583477852885</v>
       </c>
       <c r="O9" t="n">
-        <v>1502.100280679269</v>
+        <v>1731.734007452376</v>
       </c>
       <c r="P9" t="n">
-        <v>1726.072523942566</v>
+        <v>1934.049038801062</v>
       </c>
       <c r="Q9" t="n">
-        <v>2019.372083012305</v>
+        <v>2019.372083012311</v>
       </c>
       <c r="R9" t="n">
-        <v>2029.121791600464</v>
+        <v>2029.12179160047</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.946982205922</v>
+        <v>1938.354791564689</v>
       </c>
       <c r="T9" t="n">
-        <v>1693.974056940662</v>
+        <v>1743.381866299429</v>
       </c>
       <c r="U9" t="n">
-        <v>1465.868180832263</v>
+        <v>1515.27599019103</v>
       </c>
       <c r="V9" t="n">
-        <v>1230.71607260052</v>
+        <v>1515.27599019103</v>
       </c>
       <c r="W9" t="n">
-        <v>976.4787158723188</v>
+        <v>1515.27599019103</v>
       </c>
       <c r="X9" t="n">
-        <v>768.627215666786</v>
+        <v>1307.424489985497</v>
       </c>
       <c r="Y9" t="n">
-        <v>560.8669169018322</v>
+        <v>1099.664191220543</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.2319061185262</v>
+        <v>1085.050900879701</v>
       </c>
       <c r="C10" t="n">
-        <v>359.2957231906194</v>
+        <v>916.1147179517936</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2957231906194</v>
+        <v>765.9980785394579</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2957231906194</v>
+        <v>618.0849849570648</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2957231906194</v>
+        <v>471.1950374591544</v>
       </c>
       <c r="G10" t="n">
-        <v>191.1082734820382</v>
+        <v>303.0075877505732</v>
       </c>
       <c r="H10" t="n">
-        <v>40.58243583200928</v>
+        <v>152.4817501005444</v>
       </c>
       <c r="I10" t="n">
-        <v>40.58243583200928</v>
+        <v>40.58243583200941</v>
       </c>
       <c r="J10" t="n">
-        <v>52.12473997491276</v>
+        <v>52.12473997491307</v>
       </c>
       <c r="K10" t="n">
-        <v>200.9291280510194</v>
+        <v>200.92912805102</v>
       </c>
       <c r="L10" t="n">
-        <v>446.873947833688</v>
+        <v>446.873947833689</v>
       </c>
       <c r="M10" t="n">
-        <v>716.57739938072</v>
+        <v>716.5773993807213</v>
       </c>
       <c r="N10" t="n">
-        <v>985.3025220886711</v>
+        <v>985.302522088673</v>
       </c>
       <c r="O10" t="n">
-        <v>1217.497371816454</v>
+        <v>1217.497371816456</v>
       </c>
       <c r="P10" t="n">
-        <v>1392.659496429508</v>
+        <v>1392.65949642951</v>
       </c>
       <c r="Q10" t="n">
-        <v>1430.49759198945</v>
+        <v>1430.497591989453</v>
       </c>
       <c r="R10" t="n">
-        <v>1318.87716829241</v>
+        <v>1318.877168292413</v>
       </c>
       <c r="S10" t="n">
-        <v>1318.87716829241</v>
+        <v>1318.877168292413</v>
       </c>
       <c r="T10" t="n">
-        <v>1318.87716829241</v>
+        <v>1318.877168292413</v>
       </c>
       <c r="U10" t="n">
-        <v>1029.747867977146</v>
+        <v>1318.877168292413</v>
       </c>
       <c r="V10" t="n">
-        <v>1029.747867977146</v>
+        <v>1318.877168292413</v>
       </c>
       <c r="W10" t="n">
-        <v>1029.747867977146</v>
+        <v>1318.877168292413</v>
       </c>
       <c r="X10" t="n">
-        <v>930.6729500922961</v>
+        <v>1318.877168292413</v>
       </c>
       <c r="Y10" t="n">
-        <v>709.880370948766</v>
+        <v>1266.69936570994</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5060,7 +5060,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5075,16 +5075,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339057</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077977</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y11" t="n">
-        <v>2392.186779586323</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>608.0847133907091</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C13" t="n">
-        <v>608.0847133907091</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D13" t="n">
-        <v>457.9680739783734</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V13" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W13" t="n">
-        <v>1094.090022971289</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X13" t="n">
-        <v>866.1004720732712</v>
+        <v>362.8175152271522</v>
       </c>
       <c r="Y13" t="n">
-        <v>645.3078929297411</v>
+        <v>142.0249360836221</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1844.338003964587</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C14" t="n">
-        <v>1475.375487024175</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D14" t="n">
-        <v>1117.109788417425</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E14" t="n">
-        <v>731.3215358191806</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>320.335631029573</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5312,16 +5312,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.5429342656</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W14" t="n">
-        <v>2994.5429342656</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X14" t="n">
-        <v>2621.07717600452</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="Y14" t="n">
-        <v>2230.937844028709</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="15">
@@ -5346,16 +5346,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.3660221513992</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5458,28 +5458,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1891.743339809199</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1700.057455636025</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1478.290840205551</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1189.187973331195</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>934.5034851253081</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>645.0863150883474</v>
       </c>
       <c r="X16" t="n">
-        <v>590.8070661251691</v>
+        <v>417.0967641903301</v>
       </c>
       <c r="Y16" t="n">
-        <v>370.0144869816389</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1822.632236038043</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C17" t="n">
-        <v>1822.632236038043</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="D17" t="n">
-        <v>1464.366537431293</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E17" t="n">
-        <v>1078.578284833049</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F17" t="n">
-        <v>667.5923800434412</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G17" t="n">
-        <v>252.5199298884376</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W17" t="n">
-        <v>2972.837166339057</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X17" t="n">
-        <v>2599.371408077977</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y17" t="n">
-        <v>2209.232076102165</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="18">
@@ -5583,16 +5583,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>477.4688890257555</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C19" t="n">
-        <v>308.5327060978486</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D19" t="n">
-        <v>308.5327060978486</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>308.5327060978486</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>308.5327060978486</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>140.8298694725676</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5695,28 +5695,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V19" t="n">
-        <v>1169.327103036486</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W19" t="n">
-        <v>879.9099329995254</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X19" t="n">
-        <v>879.9099329995254</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y19" t="n">
-        <v>659.1173538559952</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.569348694472</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C20" t="n">
-        <v>1491.569348694472</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D20" t="n">
-        <v>1133.303650087722</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E20" t="n">
-        <v>747.5153974894774</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F20" t="n">
-        <v>364.0957168234162</v>
+        <v>651.3985183731431</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>236.3260682181396</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5762,10 +5762,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296686</v>
@@ -5786,16 +5786,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2994.5429342656</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2641.774278995485</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.308520734406</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.169188758594</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2342.011860380092</v>
+        <v>847.3980557622424</v>
       </c>
       <c r="C22" t="n">
-        <v>2173.075677452185</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.959038039849</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.959038039849</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F22" t="n">
-        <v>1876.069090541939</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G22" t="n">
-        <v>1708.366253916658</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H22" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366698</v>
+        <v>1839.370592277207</v>
       </c>
       <c r="S22" t="n">
-        <v>3235.775364366698</v>
+        <v>1647.684708104033</v>
       </c>
       <c r="T22" t="n">
-        <v>3014.008748936224</v>
+        <v>1425.918092673559</v>
       </c>
       <c r="U22" t="n">
-        <v>2744.452904353862</v>
+        <v>1136.815225799203</v>
       </c>
       <c r="V22" t="n">
-        <v>2744.452904353862</v>
+        <v>1136.815225799203</v>
       </c>
       <c r="W22" t="n">
-        <v>2744.452904353862</v>
+        <v>847.3980557622424</v>
       </c>
       <c r="X22" t="n">
-        <v>2744.452904353862</v>
+        <v>847.3980557622424</v>
       </c>
       <c r="Y22" t="n">
-        <v>2523.660325210332</v>
+        <v>847.3980557622424</v>
       </c>
     </row>
     <row r="23">
@@ -5972,43 +5972,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6017,7 +6017,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551636</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K26" t="n">
-        <v>750.1800661608916</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L26" t="n">
-        <v>1614.698881814246</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M26" t="n">
-        <v>2593.249184644075</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N26" t="n">
-        <v>3573.001456870722</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604875</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6300,43 +6300,43 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>781.811212990069</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C28" t="n">
-        <v>612.8750300621621</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D28" t="n">
-        <v>462.7583906498263</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E28" t="n">
-        <v>314.8452970674332</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F28" t="n">
-        <v>167.9553495695228</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6412,22 +6412,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1873.116177844809</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104704</v>
+        <v>1584.013310970452</v>
       </c>
       <c r="V28" t="n">
-        <v>1701.658977898817</v>
+        <v>1329.328822764566</v>
       </c>
       <c r="W28" t="n">
-        <v>1412.241807861856</v>
+        <v>1039.911652727605</v>
       </c>
       <c r="X28" t="n">
-        <v>1184.252256963839</v>
+        <v>811.9221018295875</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.4596778203087</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001584</v>
@@ -6464,16 +6464,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.86673817257</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844495</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6546,7 +6546,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>578.4172407837245</v>
+        <v>3942.370854773036</v>
       </c>
       <c r="C31" t="n">
-        <v>409.4810578558177</v>
+        <v>3773.434671845129</v>
       </c>
       <c r="D31" t="n">
-        <v>409.4810578558177</v>
+        <v>3623.318032432793</v>
       </c>
       <c r="E31" t="n">
-        <v>409.4810578558177</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>4344.811898746805</v>
       </c>
       <c r="U31" t="n">
-        <v>1752.949493898359</v>
+        <v>4344.811898746805</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.265005692472</v>
+        <v>4344.811898746805</v>
       </c>
       <c r="W31" t="n">
-        <v>1208.847835655512</v>
+        <v>4344.811898746805</v>
       </c>
       <c r="X31" t="n">
-        <v>980.8582847574944</v>
+        <v>4344.811898746805</v>
       </c>
       <c r="Y31" t="n">
-        <v>760.0657056139643</v>
+        <v>4124.019319603275</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2329.100220513608</v>
+        <v>2328.545154361233</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.137703573196</v>
+        <v>1959.582637420822</v>
       </c>
       <c r="D32" t="n">
-        <v>1601.872004966446</v>
+        <v>1601.316938814071</v>
       </c>
       <c r="E32" t="n">
-        <v>1216.083752368201</v>
+        <v>1215.528686215827</v>
       </c>
       <c r="F32" t="n">
-        <v>805.0978475785939</v>
+        <v>804.5427814262196</v>
       </c>
       <c r="G32" t="n">
-        <v>390.0253974235903</v>
+        <v>389.470331271216</v>
       </c>
       <c r="H32" t="n">
-        <v>92.44179703235757</v>
+        <v>92.44179703235747</v>
       </c>
       <c r="I32" t="n">
-        <v>92.44179703235757</v>
+        <v>92.44179703235747</v>
       </c>
       <c r="J32" t="n">
-        <v>448.726577011736</v>
+        <v>448.7265770117359</v>
       </c>
       <c r="K32" t="n">
-        <v>1103.449909147036</v>
+        <v>1103.449909147035</v>
       </c>
       <c r="L32" t="n">
-        <v>1684.485588460495</v>
+        <v>1742.89704682084</v>
       </c>
       <c r="M32" t="n">
-        <v>2218.01749313242</v>
+        <v>2276.428951492765</v>
       </c>
       <c r="N32" t="n">
-        <v>2764.796310191202</v>
+        <v>2823.207768551547</v>
       </c>
       <c r="O32" t="n">
-        <v>3644.760960520657</v>
+        <v>3326.180239430884</v>
       </c>
       <c r="P32" t="n">
-        <v>4039.535326877835</v>
+        <v>4039.53532687783</v>
       </c>
       <c r="Q32" t="n">
-        <v>4498.013529386823</v>
+        <v>4498.013529386818</v>
       </c>
       <c r="R32" t="n">
-        <v>4622.089851617879</v>
+        <v>4622.089851617873</v>
       </c>
       <c r="S32" t="n">
-        <v>4511.799183144974</v>
+        <v>4622.089851617873</v>
       </c>
       <c r="T32" t="n">
-        <v>4416.667170154469</v>
+        <v>4416.112104002095</v>
       </c>
       <c r="U32" t="n">
-        <v>4163.136693428306</v>
+        <v>4162.581627275932</v>
       </c>
       <c r="V32" t="n">
-        <v>3832.073806084736</v>
+        <v>3831.518739932361</v>
       </c>
       <c r="W32" t="n">
-        <v>3479.305150814621</v>
+        <v>3478.750084662247</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.839392553542</v>
+        <v>3105.284326401167</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.70006057773</v>
+        <v>2715.144994425355</v>
       </c>
     </row>
     <row r="33">
@@ -6753,58 +6753,58 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>967.4735350812829</v>
+        <v>967.4735350812826</v>
       </c>
       <c r="C33" t="n">
-        <v>793.0205058001559</v>
+        <v>793.0205058001557</v>
       </c>
       <c r="D33" t="n">
-        <v>644.0860961389046</v>
+        <v>644.0860961389044</v>
       </c>
       <c r="E33" t="n">
-        <v>484.8486411334491</v>
+        <v>484.848641133449</v>
       </c>
       <c r="F33" t="n">
-        <v>338.314083160334</v>
+        <v>338.3140831603339</v>
       </c>
       <c r="G33" t="n">
-        <v>201.9509829929521</v>
+        <v>201.950982992952</v>
       </c>
       <c r="H33" t="n">
-        <v>111.4490886308196</v>
+        <v>111.4490886308195</v>
       </c>
       <c r="I33" t="n">
-        <v>92.44179703235757</v>
+        <v>92.44179703235747</v>
       </c>
       <c r="J33" t="n">
-        <v>186.1190665229749</v>
+        <v>186.1190665229748</v>
       </c>
       <c r="K33" t="n">
-        <v>424.383265503322</v>
+        <v>424.3832655033219</v>
       </c>
       <c r="L33" t="n">
-        <v>791.0814258159874</v>
+        <v>791.081425815987</v>
       </c>
       <c r="M33" t="n">
         <v>1238.357751038303</v>
       </c>
       <c r="N33" t="n">
-        <v>1711.880794592758</v>
+        <v>1711.880794592757</v>
       </c>
       <c r="O33" t="n">
-        <v>2122.842074010813</v>
+        <v>2122.842074010812</v>
       </c>
       <c r="P33" t="n">
-        <v>2433.341665486916</v>
+        <v>2433.341665486915</v>
       </c>
       <c r="Q33" t="n">
         <v>2590.983223133515</v>
       </c>
       <c r="R33" t="n">
-        <v>2590.838869726031</v>
+        <v>2590.83886972603</v>
       </c>
       <c r="S33" t="n">
-        <v>2461.400983219511</v>
+        <v>2461.40098321951</v>
       </c>
       <c r="T33" t="n">
         <v>2268.757982897366</v>
@@ -6816,10 +6816,10 @@
         <v>1805.538027800039</v>
       </c>
       <c r="W33" t="n">
-        <v>1551.300671071838</v>
+        <v>1551.300671071837</v>
       </c>
       <c r="X33" t="n">
-        <v>1343.449170866305</v>
+        <v>1343.449170866304</v>
       </c>
       <c r="Y33" t="n">
         <v>1135.688872101351</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3155.63968405347</v>
+        <v>848.540781498751</v>
       </c>
       <c r="C34" t="n">
-        <v>3155.63968405347</v>
+        <v>679.6045985708441</v>
       </c>
       <c r="D34" t="n">
-        <v>3005.523044641134</v>
+        <v>529.4879591585084</v>
       </c>
       <c r="E34" t="n">
-        <v>3005.523044641134</v>
+        <v>503.6874976214353</v>
       </c>
       <c r="F34" t="n">
-        <v>2858.633097143224</v>
+        <v>503.6874976214353</v>
       </c>
       <c r="G34" t="n">
-        <v>2858.633097143224</v>
+        <v>335.9846609961543</v>
       </c>
       <c r="H34" t="n">
-        <v>2858.633097143224</v>
+        <v>189.7674742140121</v>
       </c>
       <c r="I34" t="n">
-        <v>2761.307419961569</v>
+        <v>92.44179703235747</v>
       </c>
       <c r="J34" t="n">
-        <v>2806.430052408505</v>
+        <v>137.564429479293</v>
       </c>
       <c r="K34" t="n">
-        <v>3010.417235357382</v>
+        <v>341.5516124281694</v>
       </c>
       <c r="L34" t="n">
-        <v>3326.977033805878</v>
+        <v>658.1114108766656</v>
       </c>
       <c r="M34" t="n">
-        <v>3671.134079405427</v>
+        <v>1002.268456476215</v>
       </c>
       <c r="N34" t="n">
-        <v>4012.542456111291</v>
+        <v>1343.676833182079</v>
       </c>
       <c r="O34" t="n">
-        <v>4311.872055031705</v>
+        <v>1643.006432102493</v>
       </c>
       <c r="P34" t="n">
-        <v>4544.479555465364</v>
+        <v>1875.613932536152</v>
       </c>
       <c r="Q34" t="n">
-        <v>4622.089851617879</v>
+        <v>1953.224228688667</v>
       </c>
       <c r="R34" t="n">
-        <v>4532.259394375406</v>
+        <v>1863.393771446195</v>
       </c>
       <c r="S34" t="n">
-        <v>4532.259394375406</v>
+        <v>1863.393771446195</v>
       </c>
       <c r="T34" t="n">
-        <v>4532.259394375406</v>
+        <v>1863.393771446195</v>
       </c>
       <c r="U34" t="n">
-        <v>4243.15652750105</v>
+        <v>1574.290904571838</v>
       </c>
       <c r="V34" t="n">
-        <v>4075.487448962218</v>
+        <v>1319.606416365951</v>
       </c>
       <c r="W34" t="n">
-        <v>3786.070278925257</v>
+        <v>1030.189246328991</v>
       </c>
       <c r="X34" t="n">
-        <v>3558.08072802724</v>
+        <v>1030.189246328991</v>
       </c>
       <c r="Y34" t="n">
-        <v>3337.28814888371</v>
+        <v>1030.189246328991</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1636.624422581789</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C35" t="n">
-        <v>1636.624422581789</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.224542770683</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3036.246795154906</v>
       </c>
       <c r="U35" t="n">
-        <v>3139.598008152917</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="V35" t="n">
-        <v>3139.598008152917</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="W35" t="n">
-        <v>2786.829352882803</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="X35" t="n">
-        <v>2413.363594621723</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y35" t="n">
-        <v>2023.224262645911</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="36">
@@ -7005,16 +7005,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.51211643218342</v>
+        <v>469.8823635670449</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218342</v>
+        <v>300.946180639138</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1751.913851851648</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1530.147236421175</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1241.044369546818</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>986.3598813409312</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>696.9427113039706</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X37" t="n">
-        <v>468.9531604059532</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y37" t="n">
-        <v>248.1605812624231</v>
+        <v>651.5308283972846</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1506.396382525582</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>1137.43386558517</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>779.1681669784198</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>779.1681669784198</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,19 +7172,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7202,22 +7202,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2656.601312826595</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X38" t="n">
-        <v>2283.135554565515</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y38" t="n">
-        <v>1892.996222589704</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218342</v>
+        <v>549.3683227675135</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218342</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1751.913851851648</v>
+        <v>1758.318954550618</v>
       </c>
       <c r="T40" t="n">
-        <v>1530.147236421175</v>
+        <v>1758.318954550618</v>
       </c>
       <c r="U40" t="n">
-        <v>1241.044369546818</v>
+        <v>1469.216087676261</v>
       </c>
       <c r="V40" t="n">
-        <v>986.3598813409312</v>
+        <v>1469.216087676261</v>
       </c>
       <c r="W40" t="n">
-        <v>696.9427113039706</v>
+        <v>1179.798917639301</v>
       </c>
       <c r="X40" t="n">
-        <v>468.9531604059532</v>
+        <v>951.8093667412834</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.1605812624231</v>
+        <v>731.0167875977533</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1647.321240915451</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="C41" t="n">
-        <v>1278.358723975039</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1266.37301342568</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,22 +7409,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296686</v>
@@ -7442,19 +7442,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V41" t="n">
-        <v>3150.294826486578</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W41" t="n">
-        <v>2797.526171216464</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X41" t="n">
-        <v>2424.060412955384</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y41" t="n">
-        <v>2033.921080979572</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D42" t="n">
         <v>618.1564155387305</v>
@@ -7476,46 +7476,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064622</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>752.7622949738579</v>
+        <v>773.7942044041906</v>
       </c>
       <c r="C43" t="n">
-        <v>583.826112045951</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D43" t="n">
-        <v>433.7094726336153</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E43" t="n">
-        <v>285.7963790512222</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F43" t="n">
-        <v>285.7963790512222</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G43" t="n">
-        <v>118.0935424259411</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1545.885413545056</v>
       </c>
       <c r="U43" t="n">
-        <v>1927.294548088493</v>
+        <v>1545.885413545056</v>
       </c>
       <c r="V43" t="n">
-        <v>1672.610059882606</v>
+        <v>1291.200925339169</v>
       </c>
       <c r="W43" t="n">
-        <v>1383.192889845645</v>
+        <v>1001.783755302208</v>
       </c>
       <c r="X43" t="n">
-        <v>1155.203338947628</v>
+        <v>773.7942044041906</v>
       </c>
       <c r="Y43" t="n">
-        <v>934.4107598040977</v>
+        <v>773.7942044041906</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1590.514489367197</v>
+        <v>1529.83239115168</v>
       </c>
       <c r="C44" t="n">
-        <v>1221.551972426786</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,10 +7646,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7676,22 +7676,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2973.729532090566</v>
       </c>
       <c r="V44" t="n">
-        <v>3093.488074938325</v>
+        <v>2642.666644746996</v>
       </c>
       <c r="W44" t="n">
-        <v>2740.71941966821</v>
+        <v>2289.897989476881</v>
       </c>
       <c r="X44" t="n">
-        <v>2367.25366140713</v>
+        <v>1916.432231215801</v>
       </c>
       <c r="Y44" t="n">
-        <v>1977.114329431319</v>
+        <v>1916.432231215801</v>
       </c>
     </row>
     <row r="45">
@@ -7728,10 +7728,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
         <v>66.51211643218342</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X46" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.3151575124869</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127267</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>147.3598584166009</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>63.37360602116064</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>7.57243180963377</v>
+        <v>7.5724318096334</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,19 +8538,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>200.4848375876045</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>157.5594571195755</v>
       </c>
       <c r="P9" t="n">
-        <v>21.87597163092136</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>344.7025836476839</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>272.882861657589</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>288.0478149561032</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>131.3146121869201</v>
+        <v>190.3160852781779</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>97.95568926599657</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.125156449316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.9810324382956</v>
+        <v>105.0742887270131</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>159.6364462020378</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>34.51339898723711</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>46.61145443660419</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>53.73645647354641</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>64.81081526322151</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>110.4600290656288</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>71.18043940434045</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>45.79259196819353</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>27.29056188231084</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>126.4919521192238</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24026,10 +24026,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.887436416874337</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>19.35155206907388</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>94.3554362891111</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24652,10 +24652,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>137.1539338988734</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>69.34270184147189</v>
       </c>
       <c r="U31" t="n">
-        <v>84.85180572133191</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.5495154908504674</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24965,10 +24965,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>109.7372772790209</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>120.8915057248669</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>86.14525557038448</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25154,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,13 +25166,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,19 +25202,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>26.64029573807271</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>66.84743663721042</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>82.55155771235557</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25360,7 +25360,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696594</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25397,16 +25397,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25442,16 +25442,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>141.8396471211848</v>
+        <v>181.1251564493158</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25597,16 +25597,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696594</v>
+        <v>22.48318772894584</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>306.4736178311853</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25682,10 +25682,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>154.194373298768</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>93.68940318050065</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>31.72293140960835</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25916,13 +25916,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>106.5556154751035</v>
       </c>
       <c r="V44" t="n">
-        <v>97.95568926599702</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.0973192145766</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862355.4361371696</v>
+        <v>862355.4361371689</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>724023.1793840936</v>
+        <v>724023.1793840937</v>
       </c>
     </row>
     <row r="14">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>477395.9385592888</v>
+        <v>477395.9385592889</v>
       </c>
       <c r="F2" t="n">
-        <v>477395.9385592887</v>
+        <v>477395.9385592889</v>
       </c>
       <c r="G2" t="n">
-        <v>477395.9385592888</v>
+        <v>477395.938559289</v>
       </c>
       <c r="H2" t="n">
-        <v>477395.938559289</v>
+        <v>477395.9385592889</v>
       </c>
       <c r="I2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417766</v>
       </c>
       <c r="J2" t="n">
-        <v>555914.5016417762</v>
+        <v>555914.5016417763</v>
       </c>
       <c r="K2" t="n">
         <v>555914.5016417763</v>
       </c>
       <c r="L2" t="n">
-        <v>547483.274024842</v>
+        <v>547483.2740248416</v>
       </c>
       <c r="M2" t="n">
-        <v>477395.9385592887</v>
+        <v>477395.9385592889</v>
       </c>
       <c r="N2" t="n">
-        <v>477395.9385592888</v>
+        <v>477395.938559289</v>
       </c>
       <c r="O2" t="n">
-        <v>477395.9385592889</v>
+        <v>477395.938559289</v>
       </c>
       <c r="P2" t="n">
         <v>477395.9385592889</v>
@@ -26369,10 +26369,10 @@
         <v>174787.7031330586</v>
       </c>
       <c r="D3" t="n">
-        <v>89764.89092299613</v>
+        <v>89764.89092299787</v>
       </c>
       <c r="E3" t="n">
-        <v>310522.8453024406</v>
+        <v>310522.8453024391</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>96558.9665973606</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911416</v>
       </c>
       <c r="K3" t="n">
-        <v>40638.73104112942</v>
+        <v>40638.73104112937</v>
       </c>
       <c r="L3" t="n">
-        <v>11812.9824157859</v>
+        <v>11812.98241578595</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247761.2999821561</v>
+        <v>247648.567042389</v>
       </c>
       <c r="C4" t="n">
-        <v>200283.0494896267</v>
+        <v>200155.6732545748</v>
       </c>
       <c r="D4" t="n">
-        <v>174628.7642409527</v>
+        <v>174494.7589921434</v>
       </c>
       <c r="E4" t="n">
-        <v>8627.368646546276</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="F4" t="n">
-        <v>8627.368646546276</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="G4" t="n">
-        <v>8627.368646546276</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="H4" t="n">
-        <v>8627.368646546276</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="I4" t="n">
-        <v>46354.78136180178</v>
+        <v>45917.41774240545</v>
       </c>
       <c r="J4" t="n">
-        <v>46354.7813618018</v>
+        <v>45917.41774240547</v>
       </c>
       <c r="K4" t="n">
-        <v>46354.78136180178</v>
+        <v>45917.41774240544</v>
       </c>
       <c r="L4" t="n">
-        <v>42303.65776105298</v>
+        <v>41905.00528168101</v>
       </c>
       <c r="M4" t="n">
-        <v>8627.368646546276</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="N4" t="n">
-        <v>8627.368646546276</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="O4" t="n">
-        <v>8627.368646546276</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="P4" t="n">
-        <v>8627.368646546276</v>
+        <v>8550.515172066862</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>82427.43700170828</v>
+        <v>82427.4370017084</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26491,13 +26491,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>94012.89781752566</v>
+        <v>94012.89781752558</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416167.8448726165</v>
+        <v>-416055.1119328495</v>
       </c>
       <c r="C6" t="n">
-        <v>124047.1010231209</v>
+        <v>124174.4772581729</v>
       </c>
       <c r="D6" t="n">
-        <v>227908.1467393412</v>
+        <v>228042.1519881487</v>
       </c>
       <c r="E6" t="n">
-        <v>83939.38404890866</v>
+        <v>84016.23752338963</v>
       </c>
       <c r="F6" t="n">
-        <v>394462.2293513492</v>
+        <v>394539.0828258289</v>
       </c>
       <c r="G6" t="n">
-        <v>394462.2293513492</v>
+        <v>394539.0828258288</v>
       </c>
       <c r="H6" t="n">
-        <v>394462.2293513494</v>
+        <v>394539.0828258287</v>
       </c>
       <c r="I6" t="n">
-        <v>316617.2354289005</v>
+        <v>317054.5990482969</v>
       </c>
       <c r="J6" t="n">
-        <v>344177.0476071466</v>
+        <v>344614.411226543</v>
       </c>
       <c r="K6" t="n">
-        <v>372537.4709851314</v>
+        <v>372974.8346045278</v>
       </c>
       <c r="L6" t="n">
-        <v>399353.7360304774</v>
+        <v>399752.3885098491</v>
       </c>
       <c r="M6" t="n">
-        <v>394462.2293513492</v>
+        <v>394539.0828258288</v>
       </c>
       <c r="N6" t="n">
-        <v>394462.2293513492</v>
+        <v>394539.0828258288</v>
       </c>
       <c r="O6" t="n">
-        <v>394462.2293513493</v>
+        <v>394539.0828258289</v>
       </c>
       <c r="P6" t="n">
-        <v>394462.2293513493</v>
+        <v>394539.0828258287</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26741,10 @@
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>823.7241178615241</v>
+        <v>823.7241178615255</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26793,16 +26793,16 @@
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>507.280447900116</v>
+        <v>507.2804479001176</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
@@ -26817,10 +26817,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="L4" t="n">
-        <v>1155.52246290447</v>
+        <v>1155.522462904468</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022928</v>
@@ -26963,10 +26963,10 @@
         <v>135.9259427281316</v>
       </c>
       <c r="D3" t="n">
-        <v>73.74316136391406</v>
+        <v>73.74316136391553</v>
       </c>
       <c r="E3" t="n">
-        <v>266.0525827317742</v>
+        <v>266.052582731773</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>157.9012582804755</v>
       </c>
       <c r="D4" t="n">
-        <v>85.66530961813424</v>
+        <v>85.66530961813579</v>
       </c>
       <c r="E4" t="n">
-        <v>324.1210075021767</v>
+        <v>324.1210075021753</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>363.1114752026376</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015065</v>
       </c>
       <c r="K4" t="n">
-        <v>157.9012582804755</v>
+        <v>157.9012582804753</v>
       </c>
       <c r="L4" t="n">
-        <v>46.6748419176735</v>
+        <v>46.67484191767368</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>157.9012582804755</v>
       </c>
       <c r="L4" t="n">
-        <v>85.66530961813424</v>
+        <v>85.66530961813579</v>
       </c>
       <c r="M4" t="n">
-        <v>324.1210075021767</v>
+        <v>324.1210075021753</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619743</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.9691616191767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>295.8616086872805</v>
+        <v>251.3134900307089</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27430,7 +27430,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27509,22 +27509,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>135.807411293457</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>190.4738045291226</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>202.9873112215836</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>223.9399938293718</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>342.4904775470648</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>206.0710617299724</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885167</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,10 +27707,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,16 +27743,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>216.538113102763</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>12.46499073246213</v>
       </c>
     </row>
     <row r="7">
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>31.71661391007872</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>220.8804434056136</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>334.8335124333564</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>305.5613764994883</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>82.81106925339498</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.5603174826494</v>
+        <v>133.5603174826493</v>
       </c>
       <c r="T8" t="n">
         <v>208.5999608166386</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>339.4882525269571</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>129.2501923990982</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.571733211584</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>95.12374133525989</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>28.39442223619843</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>48.91373126517314</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27989,10 +27989,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>110.7803211258497</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>221.5988626185288</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2380073121111</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>127.6254866830354</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>166.9286287954469</v>
       </c>
     </row>
     <row r="11">
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.311453740146828</v>
+        <v>3.311453740146834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.91342561627871</v>
+        <v>33.91342561627877</v>
       </c>
       <c r="I8" t="n">
-        <v>127.6648203170107</v>
+        <v>127.6648203170109</v>
       </c>
       <c r="J8" t="n">
-        <v>281.0554968777871</v>
+        <v>281.0554968777876</v>
       </c>
       <c r="K8" t="n">
-        <v>421.2293336982024</v>
+        <v>421.2293336982032</v>
       </c>
       <c r="L8" t="n">
-        <v>522.572236098221</v>
+        <v>522.5722360982219</v>
       </c>
       <c r="M8" t="n">
-        <v>581.4623015495571</v>
+        <v>581.4623015495581</v>
       </c>
       <c r="N8" t="n">
-        <v>590.8709694887493</v>
+        <v>590.8709694887505</v>
       </c>
       <c r="O8" t="n">
-        <v>557.9427013601643</v>
+        <v>557.9427013601653</v>
       </c>
       <c r="P8" t="n">
-        <v>476.1911871502894</v>
+        <v>476.1911871502903</v>
       </c>
       <c r="Q8" t="n">
-        <v>357.599750081281</v>
+        <v>357.5997500812816</v>
       </c>
       <c r="R8" t="n">
-        <v>208.0131060044984</v>
+        <v>208.0131060044987</v>
       </c>
       <c r="S8" t="n">
-        <v>75.45975210359592</v>
+        <v>75.45975210359605</v>
       </c>
       <c r="T8" t="n">
-        <v>14.49588874749275</v>
+        <v>14.49588874749277</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2649162992117462</v>
+        <v>0.2649162992117466</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.771783951626674</v>
+        <v>1.771783951626678</v>
       </c>
       <c r="H9" t="n">
-        <v>17.11170290123657</v>
+        <v>17.1117029012366</v>
       </c>
       <c r="I9" t="n">
-        <v>61.00221061521665</v>
+        <v>61.00221061521676</v>
       </c>
       <c r="J9" t="n">
-        <v>167.3947285175009</v>
+        <v>167.3947285175012</v>
       </c>
       <c r="K9" t="n">
-        <v>286.1042532764881</v>
+        <v>286.1042532764886</v>
       </c>
       <c r="L9" t="n">
-        <v>384.7024759880637</v>
+        <v>384.7024759880644</v>
       </c>
       <c r="M9" t="n">
-        <v>448.9296442345305</v>
+        <v>448.9296442345313</v>
       </c>
       <c r="N9" t="n">
-        <v>460.8114760855709</v>
+        <v>460.8114760855718</v>
       </c>
       <c r="O9" t="n">
-        <v>421.5524737890009</v>
+        <v>421.5524737890017</v>
       </c>
       <c r="P9" t="n">
-        <v>338.3330249382551</v>
+        <v>338.3330249382557</v>
       </c>
       <c r="Q9" t="n">
-        <v>226.1666672286962</v>
+        <v>226.1666672286966</v>
       </c>
       <c r="R9" t="n">
-        <v>110.0060246457334</v>
+        <v>110.0060246457336</v>
       </c>
       <c r="S9" t="n">
-        <v>32.91010980324106</v>
+        <v>32.91010980324112</v>
       </c>
       <c r="T9" t="n">
-        <v>7.141532682214532</v>
+        <v>7.141532682214544</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1165647336596497</v>
+        <v>0.1165647336596499</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.485404146963404</v>
+        <v>1.485404146963407</v>
       </c>
       <c r="H10" t="n">
-        <v>13.206593233911</v>
+        <v>13.20659323391102</v>
       </c>
       <c r="I10" t="n">
-        <v>44.67015380140856</v>
+        <v>44.67015380140864</v>
       </c>
       <c r="J10" t="n">
-        <v>105.0180731903126</v>
+        <v>105.0180731903128</v>
       </c>
       <c r="K10" t="n">
-        <v>172.5769545290209</v>
+        <v>172.5769545290212</v>
       </c>
       <c r="L10" t="n">
-        <v>220.8390856312683</v>
+        <v>220.8390856312687</v>
       </c>
       <c r="M10" t="n">
-        <v>232.8438518735452</v>
+        <v>232.8438518735456</v>
       </c>
       <c r="N10" t="n">
-        <v>227.3073455075909</v>
+        <v>227.3073455075913</v>
       </c>
       <c r="O10" t="n">
-        <v>209.9551243362456</v>
+        <v>209.9551243362459</v>
       </c>
       <c r="P10" t="n">
-        <v>179.652879738192</v>
+        <v>179.6528797381923</v>
       </c>
       <c r="Q10" t="n">
-        <v>124.3823417970901</v>
+        <v>124.3823417970903</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78917191709995</v>
+        <v>66.78917191710006</v>
       </c>
       <c r="S10" t="n">
-        <v>25.88654317935313</v>
+        <v>25.88654317935318</v>
       </c>
       <c r="T10" t="n">
-        <v>6.346726809752724</v>
+        <v>6.346726809752735</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08102204437982212</v>
+        <v>0.08102204437982227</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32321,7 +32321,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32330,7 +32330,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33266,13 +33266,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34226,7 +34226,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34375,7 +34375,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
         <v>781.7148990095023</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34781,7 +34781,7 @@
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572289</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34793,7 +34793,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649641</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>151.6622745597329</v>
+        <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
-        <v>270.0094465683977</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
         <v>211.707952780637</v>
@@ -35030,10 +35030,10 @@
         <v>241.2171229812711</v>
       </c>
       <c r="P6" t="n">
-        <v>174.0696575289995</v>
+        <v>237.4432635501601</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.93752551686947</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100.0095923511008</v>
+        <v>100.0095923511013</v>
       </c>
       <c r="K8" t="n">
-        <v>201.1394826532219</v>
+        <v>201.1394826532226</v>
       </c>
       <c r="L8" t="n">
-        <v>286.8058211282337</v>
+        <v>286.8058211282346</v>
       </c>
       <c r="M8" t="n">
-        <v>351.1160683222844</v>
+        <v>351.1160683222854</v>
       </c>
       <c r="N8" t="n">
-        <v>361.4579058921584</v>
+        <v>361.4579058921595</v>
       </c>
       <c r="O8" t="n">
-        <v>327.8444899384775</v>
+        <v>327.8444899384785</v>
       </c>
       <c r="P8" t="n">
-        <v>244.9581913950199</v>
+        <v>244.9581913950207</v>
       </c>
       <c r="Q8" t="n">
-        <v>135.2940602068315</v>
+        <v>135.2940602068321</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>166.648137191243</v>
+        <v>40.55710185083447</v>
       </c>
       <c r="K9" t="n">
-        <v>148.2628143021291</v>
+        <v>148.2628143021296</v>
       </c>
       <c r="L9" t="n">
-        <v>246.1480962081895</v>
+        <v>246.1480962081902</v>
       </c>
       <c r="M9" t="n">
-        <v>306.7956103125122</v>
+        <v>507.2804479001176</v>
       </c>
       <c r="N9" t="n">
-        <v>329.4697640022376</v>
+        <v>329.4697640022384</v>
       </c>
       <c r="O9" t="n">
-        <v>278.9562293445564</v>
+        <v>436.5156864641327</v>
       </c>
       <c r="P9" t="n">
-        <v>226.2345891548462</v>
+        <v>204.3586175239254</v>
       </c>
       <c r="Q9" t="n">
-        <v>296.2621808785238</v>
+        <v>86.18489314267509</v>
       </c>
       <c r="R9" t="n">
-        <v>9.848190493090257</v>
+        <v>9.848190493090456</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.65889307363987</v>
+        <v>11.65889307364006</v>
       </c>
       <c r="K10" t="n">
-        <v>150.307462703138</v>
+        <v>150.3074627031384</v>
       </c>
       <c r="L10" t="n">
-        <v>248.4291108915844</v>
+        <v>248.4291108915848</v>
       </c>
       <c r="M10" t="n">
-        <v>272.4277288353858</v>
+        <v>272.4277288353862</v>
       </c>
       <c r="N10" t="n">
-        <v>271.4395178868194</v>
+        <v>271.4395178868199</v>
       </c>
       <c r="O10" t="n">
-        <v>234.5402522502852</v>
+        <v>234.5402522502856</v>
       </c>
       <c r="P10" t="n">
-        <v>176.9314390030855</v>
+        <v>176.9314390030858</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.22029854539575</v>
+        <v>38.22029854539596</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -35978,7 +35978,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>883.6236994779107</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>470.444344195426</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36610,13 +36610,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>671.6448478769609</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>743.6379293484354</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,7 +36844,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36914,13 +36914,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37072,7 +37072,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>586.9047265792523</v>
+        <v>645.9061996705101</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,10 +37081,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37786,7 +37786,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38023,7 +38023,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
